--- a/analysis/analysis I/results/probit_robustnesscheck.xlsx
+++ b/analysis/analysis I/results/probit_robustnesscheck.xlsx
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242</v>
+        <v>0.232</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>482.244</v>
+        <v>513.999</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -562,37 +562,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.541</v>
+        <v>0.517</v>
       </c>
       <c r="D3" t="n">
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.242</v>
+        <v>0.232</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>482.244</v>
+        <v>513.999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.186</v>
+        <v>0.179</v>
       </c>
       <c r="I3" t="n">
         <v>0.052</v>
       </c>
       <c r="J3" t="n">
-        <v>3.545</v>
+        <v>3.444</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L3" t="n">
-        <v>0.083</v>
+        <v>0.077</v>
       </c>
       <c r="M3" t="n">
-        <v>0.288</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.893</v>
+        <v>0.89</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.242</v>
+        <v>0.232</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>482.244</v>
+        <v>513.999</v>
       </c>
       <c r="H4" t="n">
         <v>0.307</v>
       </c>
       <c r="I4" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="J4" t="n">
-        <v>6.558</v>
+        <v>6.622</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.215</v>
+        <v>0.216</v>
       </c>
       <c r="M4" t="n">
         <v>0.398</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.166</v>
+        <v>-1.18</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.469</v>
+        <v>433.454</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.534</v>
+        <v>0.51</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E6" t="n">
         <v>0.257</v>
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>415.469</v>
+        <v>433.454</v>
       </c>
       <c r="H6" t="n">
-        <v>0.155</v>
+        <v>0.145</v>
       </c>
       <c r="I6" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="J6" t="n">
-        <v>3.631</v>
+        <v>3.545</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="M6" t="n">
-        <v>0.238</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="7">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.926</v>
+        <v>0.957</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -730,25 +730,25 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>415.469</v>
+        <v>433.454</v>
       </c>
       <c r="H7" t="n">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
       <c r="I7" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="J7" t="n">
-        <v>6.989</v>
+        <v>7.416</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.193</v>
+        <v>0.201</v>
       </c>
       <c r="M7" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="8">
@@ -763,19 +763,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.252</v>
+        <v>-1.29</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>407.922</v>
+        <v>423.59</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -792,37 +792,37 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.864</v>
+        <v>0.858</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>407.922</v>
+        <v>423.59</v>
       </c>
       <c r="H9" t="n">
-        <v>0.246</v>
+        <v>0.238</v>
       </c>
       <c r="I9" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="J9" t="n">
-        <v>6.524</v>
+        <v>6.591</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.172</v>
+        <v>0.167</v>
       </c>
       <c r="M9" t="n">
-        <v>0.319</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="10">
@@ -833,37 +833,37 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.924</v>
+        <v>0.955</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>407.922</v>
+        <v>423.59</v>
       </c>
       <c r="H10" t="n">
-        <v>0.263</v>
+        <v>0.265</v>
       </c>
       <c r="I10" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="J10" t="n">
-        <v>7.014</v>
+        <v>7.458</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.189</v>
+        <v>0.196</v>
       </c>
       <c r="M10" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="11">
@@ -878,19 +878,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.516</v>
+        <v>-0.546</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>387.583</v>
+        <v>415.596</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -907,37 +907,37 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.103</v>
+        <v>0.068</v>
       </c>
       <c r="D12" t="n">
-        <v>0.525</v>
+        <v>0.666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>387.583</v>
+        <v>415.596</v>
       </c>
       <c r="H12" t="n">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
       <c r="I12" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="J12" t="n">
-        <v>0.637</v>
+        <v>0.432</v>
       </c>
       <c r="K12" t="n">
-        <v>0.524</v>
+        <v>0.665</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.057</v>
+        <v>-0.064</v>
       </c>
       <c r="M12" t="n">
-        <v>0.112</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="13">
@@ -948,37 +948,37 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.896</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>387.583</v>
+        <v>415.596</v>
       </c>
       <c r="H13" t="n">
-        <v>0.238</v>
+        <v>0.252</v>
       </c>
       <c r="I13" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="J13" t="n">
-        <v>4.905</v>
+        <v>5.324</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.143</v>
+        <v>0.159</v>
       </c>
       <c r="M13" t="n">
-        <v>0.333</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="14">
@@ -989,28 +989,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.876</v>
+        <v>1.84</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>387.583</v>
+        <v>415.596</v>
       </c>
       <c r="H14" t="n">
-        <v>0.499</v>
+        <v>0.495</v>
       </c>
       <c r="I14" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="J14" t="n">
-        <v>10.249</v>
+        <v>10.614</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>0.404</v>
       </c>
       <c r="M14" t="n">
-        <v>0.594</v>
+        <v>0.587</v>
       </c>
     </row>
   </sheetData>
